--- a/Tables/Supplementary_Table_4.xlsx
+++ b/Tables/Supplementary_Table_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Covariate</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04-1.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974-1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0912</t>
+    <t xml:space="preserve">1.03-2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.742-1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
@@ -71,13 +71,16 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">1.01-1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00101</t>
+    <t xml:space="preserve">1.01-1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01-1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00974</t>
   </si>
   <si>
     <t xml:space="preserve">ECOG Performance Status</t>
@@ -89,85 +92,112 @@
     <t xml:space="preserve">PS=0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834-1.24</t>
+    <t xml:space="preserve">0.873-2.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64-1.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain metastases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995-2.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61-4.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histology subtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squamous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonsquamous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19-2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789-2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD-L1 status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDL1&lt;50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDL1≥50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997-2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873-1.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627-1.69</t>
   </si>
   <si>
     <t xml:space="preserve">Excluded from multivariable analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.738-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain metastases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992-1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24-2.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histology subtype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squamous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonsquamous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976-1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774-1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD-L1 status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDL1≥50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDL1&lt;50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645-1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662-1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.279</t>
+    <t xml:space="preserve">Smoking status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368-2.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441-3.42</t>
   </si>
   <si>
     <t xml:space="preserve">Objective response</t>
@@ -179,16 +209,16 @@
     <t xml:space="preserve">CR</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92-6.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-7.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63e-12</t>
+    <t xml:space="preserve">2.16-12.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14-16.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000588</t>
   </si>
 </sst>
 </file>
@@ -604,13 +634,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.017</v>
+        <v>0.035</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -633,196 +663,254 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.858</v>
+        <v>0.177</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>1.53</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.296</v>
+        <v>0.053</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.057</v>
+        <v>0.004</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.08</v>
+        <v>0.052</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.836</v>
+        <v>1.03</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.176</v>
+        <v>0.908</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>4.45</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="1" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
